--- a/src/main/resources/inputs/ReadyForDataBase/taux-natalite-par-departement.xlsx
+++ b/src/main/resources/inputs/ReadyForDataBase/taux-natalite-par-departement.xlsx
@@ -85,6 +85,7 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -149,40 +150,44 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -378,99 +383,100 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="30.74"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="33.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="28.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="25.74"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4" t="n">
+      <c r="B2" s="5" t="n">
         <v>22</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="6" t="n">
         <v>8.9</v>
       </c>
-      <c r="D2" s="5" t="n">
+      <c r="D2" s="6" t="n">
         <v>8.2</v>
       </c>
-      <c r="E2" s="5" t="n">
+      <c r="E2" s="6" t="n">
         <v>7.7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="n">
+      <c r="B3" s="5" t="n">
         <v>29</v>
       </c>
-      <c r="C3" s="5" t="n">
+      <c r="C3" s="6" t="n">
         <v>9.2</v>
       </c>
-      <c r="D3" s="5" t="n">
+      <c r="D3" s="6" t="n">
         <v>8.6</v>
       </c>
-      <c r="E3" s="5" t="n">
+      <c r="E3" s="6" t="n">
         <v>7.7</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="n">
+      <c r="B4" s="9" t="n">
         <v>35</v>
       </c>
-      <c r="C4" s="5" t="n">
+      <c r="C4" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="D4" s="5" t="n">
+      <c r="D4" s="6" t="n">
         <v>10.2</v>
       </c>
-      <c r="E4" s="5" t="n">
+      <c r="E4" s="6" t="n">
         <v>9.5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="8" t="n">
+      <c r="B5" s="9" t="n">
         <v>56</v>
       </c>
-      <c r="C5" s="5" t="n">
+      <c r="C5" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" s="5" t="n">
+      <c r="D5" s="6" t="n">
         <v>8.7</v>
       </c>
-      <c r="E5" s="5" t="n">
+      <c r="E5" s="6" t="n">
         <v>7.6</v>
       </c>
     </row>
